--- a/UserDriver.xlsx
+++ b/UserDriver.xlsx
@@ -80,7 +80,7 @@
     <t>venya@gmail.com</t>
   </si>
   <si>
-    <t>380991112233</t>
+    <t>0991112233,0994445566</t>
   </si>
   <si>
     <t>Ukrainian</t>
@@ -212,9 +212,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -225,6 +233,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,6 +247,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -321,7 +337,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -334,96 +350,96 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3622448979592"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.4744897959184"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5051020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
     </row>

--- a/UserDriver.xlsx
+++ b/UserDriver.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>lastName</t>
   </si>
@@ -96,6 +96,42 @@
   </si>
   <si>
     <t>KATP 13061 PJSC</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>Диденко</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Didenko</t>
+  </si>
+  <si>
+    <t>Valerij</t>
+  </si>
+  <si>
+    <t>Andreevich</t>
+  </si>
+  <si>
+    <t>didenko@gmail.com</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>didenko</t>
+  </si>
+  <si>
+    <t>Qwerty123</t>
+  </si>
+  <si>
+    <t>Toyota</t>
   </si>
 </sst>
 </file>
@@ -217,7 +253,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,10 +261,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,6 +286,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,10 +370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -349,7 +385,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9744897959184"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3622448979592"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3622448979592"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.4744897959184"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="11.5204081632653"/>
@@ -357,95 +393,140 @@
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>961235566</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="venya@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="didenko@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
